--- a/Result and Analysis Section/Second pass model outputs/publication inference result by grid size.xlsx
+++ b/Result and Analysis Section/Second pass model outputs/publication inference result by grid size.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parzi\OneDrive - Tribhuvan University\Desktop\Major Project\CODE\BCS Code\BCS-ALL-Code\Crossword Solver\Result and Analysis Section\Second pass model outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1C943EA7-097C-4DB5-A81A-50ADDDF2DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F304C99-DA64-420E-92E4-201A2A471A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publication inference result by" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,70 +694,67 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1113,19 +1110,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="8" width="9.140625" customWidth="1"/>
@@ -1134,291 +1131,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="H1" s="19"/>
+      <c r="P1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>18</v>
       </c>
-      <c r="E3" s="10">
-        <v>100</v>
-      </c>
-      <c r="F3" s="10">
-        <v>100</v>
-      </c>
-      <c r="G3" s="10">
-        <v>100</v>
-      </c>
-      <c r="H3" s="10">
-        <v>100</v>
-      </c>
-      <c r="P3" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="E3" s="7">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7">
+        <v>100</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>20</v>
       </c>
-      <c r="E4" s="11">
-        <v>100</v>
-      </c>
-      <c r="F4" s="11">
-        <v>100</v>
-      </c>
-      <c r="G4" s="11">
-        <v>100</v>
-      </c>
-      <c r="H4" s="11">
-        <v>100</v>
-      </c>
-      <c r="P4" s="11">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="E4" s="9">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9">
+        <v>100</v>
+      </c>
+      <c r="G4" s="9">
+        <v>100</v>
+      </c>
+      <c r="H4" s="9">
+        <v>100</v>
+      </c>
+      <c r="P4" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>19</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>89.47</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>89.47</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>98.72</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>98.72</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="3">
         <v>99.74</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="3">
         <v>99.74</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>14</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>57.14</v>
       </c>
-      <c r="F6" s="11">
-        <v>100</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="9">
+        <v>100</v>
+      </c>
+      <c r="G6" s="9">
         <v>95.48</v>
       </c>
-      <c r="H6" s="11">
-        <v>100</v>
-      </c>
-      <c r="P6" s="11">
+      <c r="H6" s="9">
+        <v>100</v>
+      </c>
+      <c r="P6" s="3">
         <v>99</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>55.56</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>88.89</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>95.71</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>99.18</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="3">
         <v>99.05</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="3">
         <v>99.84</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="10">
         <v>66.67</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="9">
         <v>93.18</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="9">
         <v>97.73</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="3">
         <v>98.4</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="3">
         <v>99.44</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>5</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>40</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>92.27</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="12">
         <v>96.95</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="4">
         <v>97.9</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="4">
         <v>99.28</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>86</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>74.42</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>89.53</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>98.86</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>99.63</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="2">
         <v>99.71</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="2">
         <v>99.92</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="12">
@@ -1436,105 +1433,105 @@
       <c r="H11" s="12">
         <v>99.9</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="4">
         <v>99.82</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="4">
         <v>99.98</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="15">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>108</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>85.19</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>98.15</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>99.37</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>99.95</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="2">
         <v>99.84</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="2">
         <v>99.99</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>11</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>81.819999999999993</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>90.91</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>98.54</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>99.75</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="3">
         <v>99.6</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="3">
         <v>99.96</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
-        <v>100</v>
-      </c>
-      <c r="F14" s="11">
-        <v>100</v>
-      </c>
-      <c r="G14" s="11">
-        <v>100</v>
-      </c>
-      <c r="H14" s="11">
-        <v>100</v>
-      </c>
-      <c r="P14" s="11">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="11">
+      <c r="E14" s="9">
+        <v>100</v>
+      </c>
+      <c r="F14" s="9">
+        <v>100</v>
+      </c>
+      <c r="G14" s="9">
+        <v>100</v>
+      </c>
+      <c r="H14" s="9">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="12">
@@ -1552,77 +1549,77 @@
       <c r="H15" s="12">
         <v>99.93</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="4">
         <v>99.73</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="4">
         <v>99.99</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="15">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="7">
         <v>86</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="7">
         <v>51.16</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="14">
         <v>70.930000000000007</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="7">
         <v>96.49</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="7">
         <v>98.58</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="2">
         <v>99</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="2">
         <v>99.65</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
-        <v>100</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="F17" s="9">
+        <v>100</v>
+      </c>
+      <c r="G17" s="9">
         <v>97.41</v>
       </c>
-      <c r="H17" s="11">
-        <v>100</v>
-      </c>
-      <c r="P17" s="11">
+      <c r="H17" s="9">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>99.51</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="12">
@@ -1640,49 +1637,49 @@
       <c r="H18" s="12">
         <v>100</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="4">
         <v>97.94</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="15">
         <v>5</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>110</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>60</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>84.55</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <v>97.91</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>99.29</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="3">
         <v>99.44</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="3">
         <v>99.78</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="12">
@@ -1700,10 +1697,10 @@
       <c r="H20" s="12">
         <v>99.67</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="4">
         <v>99.45</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="4">
         <v>99.91</v>
       </c>
     </row>
